--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-336442.3303436917</v>
+        <v>-338645.7116104266</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>216.3165340789233</v>
+        <v>380.9856836588686</v>
       </c>
       <c r="G2" t="n">
         <v>413.9784892908473</v>
       </c>
       <c r="H2" t="n">
-        <v>325.91284498878</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>159.4228099035514</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>66.68481042223254</v>
+        <v>66.68481042223269</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>251.2397130498935</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>132.4287215267259</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -756,7 +756,7 @@
         <v>105.3924852342977</v>
       </c>
       <c r="I3" t="n">
-        <v>65.00188799798167</v>
+        <v>65.00188799798173</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>56.16649553541986</v>
       </c>
       <c r="S3" t="n">
         <v>158.5224393262212</v>
       </c>
       <c r="T3" t="n">
-        <v>197.3088343610248</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8947679188345</v>
       </c>
       <c r="V3" t="n">
-        <v>57.5537862006819</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.9458643536007</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>51.3625200835391</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>25.35670680328261</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>95.75756592204303</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>390.9553700021967</v>
       </c>
       <c r="G5" t="n">
-        <v>338.7464903944172</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1038,7 +1038,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034773</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>117.1365314849862</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>155.4526127311941</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>230.8339667561735</v>
+        <v>339.4822772397036</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1181,7 +1181,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>114.3028656524357</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>22.35153719005481</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>143.8804701573718</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1385,7 +1385,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>73.21534277368421</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247744</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>121.7791400816545</v>
+        <v>126.8772582534107</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1661,7 +1661,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589029</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>69.60662835550646</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1822,7 +1822,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>51.006726671668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292631</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>10.40839188245995</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>29.27342695546616</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2096,10 +2096,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292631</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>182.1012676634234</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>36.41670903610071</v>
       </c>
     </row>
     <row r="23">
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>84.69473660442802</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>270.0697021486463</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>67.33742371513314</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2767,7 +2767,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>232.4753817320663</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>173.6268892744752</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>179.6186647255321</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>350.8780802755082</v>
+        <v>350.8780802755083</v>
       </c>
       <c r="C35" t="n">
-        <v>333.4171303830352</v>
+        <v>333.4171303830353</v>
       </c>
       <c r="D35" t="n">
-        <v>322.8272802327106</v>
+        <v>322.8272802327107</v>
       </c>
       <c r="E35" t="n">
-        <v>350.0746086842894</v>
+        <v>350.0746086842895</v>
       </c>
       <c r="F35" t="n">
-        <v>375.0202843537391</v>
+        <v>375.0202843537392</v>
       </c>
       <c r="G35" t="n">
-        <v>379.0659642654811</v>
+        <v>379.0659642654812</v>
       </c>
       <c r="H35" t="n">
-        <v>262.7520029993481</v>
+        <v>262.7520029993482</v>
       </c>
       <c r="I35" t="n">
-        <v>9.7211683849536</v>
+        <v>9.721168384953685</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>77.33200040020348</v>
+        <v>77.33200040020358</v>
       </c>
       <c r="T35" t="n">
-        <v>172.0622087516478</v>
+        <v>172.0622087516479</v>
       </c>
       <c r="U35" t="n">
-        <v>219.1394105709296</v>
+        <v>219.1394105709297</v>
       </c>
       <c r="V35" t="n">
         <v>295.8964970821626</v>
@@ -3329,7 +3329,7 @@
         <v>317.3852073294407</v>
       </c>
       <c r="X35" t="n">
-        <v>337.8753392904967</v>
+        <v>337.8753392904968</v>
       </c>
       <c r="Y35" t="n">
         <v>354.3821772680813</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>147.976218793965</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>135.3910597106555</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>39.66898913668896</v>
       </c>
       <c r="E37" t="n">
-        <v>48.27582443888112</v>
+        <v>114.5782012585969</v>
       </c>
       <c r="F37" t="n">
-        <v>113.5652866349589</v>
+        <v>113.565286634959</v>
       </c>
       <c r="G37" t="n">
         <v>134.1700468710559</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>112.8992535263485</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>64.49665902186584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.07639128207498</v>
+        <v>57.07639128207505</v>
       </c>
       <c r="S37" t="n">
-        <v>157.9132639434695</v>
+        <v>157.9132639434696</v>
       </c>
       <c r="T37" t="n">
         <v>187.6931878881969</v>
       </c>
       <c r="U37" t="n">
-        <v>254.3560768176405</v>
+        <v>254.3560768176406</v>
       </c>
       <c r="V37" t="n">
         <v>220.2818819358557</v>
@@ -3487,7 +3487,7 @@
         <v>254.6672369486187</v>
       </c>
       <c r="X37" t="n">
-        <v>193.8538940010648</v>
+        <v>193.8538940010649</v>
       </c>
       <c r="Y37" t="n">
         <v>186.7288919641225</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797721</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
         <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404361</v>
       </c>
       <c r="H40" t="n">
         <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514552</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958327</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4034,7 +4034,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V44" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515437</v>
       </c>
       <c r="W44" t="n">
         <v>302.2658320988205</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4153,7 +4153,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124503</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1545.313045140247</v>
+        <v>1210.710665884984</v>
       </c>
       <c r="C2" t="n">
-        <v>1176.350528199835</v>
+        <v>1210.710665884984</v>
       </c>
       <c r="D2" t="n">
-        <v>1176.350528199835</v>
+        <v>852.4449672782334</v>
       </c>
       <c r="E2" t="n">
-        <v>1176.350528199835</v>
+        <v>852.4449672782334</v>
       </c>
       <c r="F2" t="n">
-        <v>957.8489786251655</v>
+        <v>467.6109433803863</v>
       </c>
       <c r="G2" t="n">
-        <v>539.6888884323905</v>
+        <v>49.45085318761131</v>
       </c>
       <c r="H2" t="n">
-        <v>210.4839945043299</v>
+        <v>49.45085318761131</v>
       </c>
       <c r="I2" t="n">
-        <v>49.45085318761137</v>
+        <v>49.45085318761131</v>
       </c>
       <c r="J2" t="n">
-        <v>148.8910303254283</v>
+        <v>148.8910303254281</v>
       </c>
       <c r="K2" t="n">
-        <v>418.670882895995</v>
+        <v>418.6708828959941</v>
       </c>
       <c r="L2" t="n">
-        <v>805.6332731184041</v>
+        <v>805.6332731184031</v>
       </c>
       <c r="M2" t="n">
-        <v>1252.81003738415</v>
+        <v>1252.810037384148</v>
       </c>
       <c r="N2" t="n">
-        <v>1692.590591658816</v>
+        <v>1692.590591658814</v>
       </c>
       <c r="O2" t="n">
-        <v>2062.675260521431</v>
+        <v>2062.675260521429</v>
       </c>
       <c r="P2" t="n">
-        <v>2340.859580276716</v>
+        <v>2340.859580276714</v>
       </c>
       <c r="Q2" t="n">
-        <v>2472.542659380568</v>
+        <v>2472.542659380566</v>
       </c>
       <c r="R2" t="n">
-        <v>2405.184265014677</v>
+        <v>2405.184265014674</v>
       </c>
       <c r="S2" t="n">
-        <v>2405.184265014677</v>
+        <v>2405.184265014674</v>
       </c>
       <c r="T2" t="n">
-        <v>2185.690373133554</v>
+        <v>2185.690373133551</v>
       </c>
       <c r="U2" t="n">
-        <v>1931.912885204369</v>
+        <v>1931.912885204366</v>
       </c>
       <c r="V2" t="n">
-        <v>1931.912885204369</v>
+        <v>1600.849997860796</v>
       </c>
       <c r="W2" t="n">
-        <v>1931.912885204369</v>
+        <v>1600.849997860796</v>
       </c>
       <c r="X2" t="n">
-        <v>1931.912885204369</v>
+        <v>1600.849997860796</v>
       </c>
       <c r="Y2" t="n">
-        <v>1931.912885204369</v>
+        <v>1210.710665884984</v>
       </c>
     </row>
     <row r="3">
@@ -4404,55 +4404,55 @@
         <v>115.1093259128454</v>
       </c>
       <c r="I3" t="n">
-        <v>49.45085318761137</v>
+        <v>49.45085318761131</v>
       </c>
       <c r="J3" t="n">
-        <v>49.45085318761137</v>
+        <v>114.9833617744797</v>
       </c>
       <c r="K3" t="n">
-        <v>288.077191341776</v>
+        <v>353.6096999286441</v>
       </c>
       <c r="L3" t="n">
-        <v>670.3441475960524</v>
+        <v>735.8766561829202</v>
       </c>
       <c r="M3" t="n">
-        <v>1168.410876817604</v>
+        <v>1233.943385404471</v>
       </c>
       <c r="N3" t="n">
-        <v>1695.366963705299</v>
+        <v>1760.899472292167</v>
       </c>
       <c r="O3" t="n">
-        <v>2111.013155728569</v>
+        <v>2176.545664315436</v>
       </c>
       <c r="P3" t="n">
-        <v>2427.602801165422</v>
+        <v>2472.542659380566</v>
       </c>
       <c r="Q3" t="n">
-        <v>2472.542659380568</v>
+        <v>2472.542659380566</v>
       </c>
       <c r="R3" t="n">
-        <v>2472.542659380568</v>
+        <v>2415.808825506404</v>
       </c>
       <c r="S3" t="n">
-        <v>2312.418983293476</v>
+        <v>2255.685149419312</v>
       </c>
       <c r="T3" t="n">
-        <v>2113.117130403552</v>
+        <v>2255.685149419312</v>
       </c>
       <c r="U3" t="n">
-        <v>1884.940597152204</v>
+        <v>2027.508616167964</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.805459575758</v>
+        <v>1792.356507936221</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.568102847556</v>
+        <v>1538.11915120802</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.716602642024</v>
+        <v>1330.267651002487</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.95630387707</v>
+        <v>1122.507352237533</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>409.9800021324115</v>
+        <v>49.45085318761131</v>
       </c>
       <c r="C4" t="n">
-        <v>409.9800021324115</v>
+        <v>49.45085318761131</v>
       </c>
       <c r="D4" t="n">
-        <v>259.8633627200758</v>
+        <v>49.45085318761131</v>
       </c>
       <c r="E4" t="n">
-        <v>259.8633627200758</v>
+        <v>49.45085318761131</v>
       </c>
       <c r="F4" t="n">
-        <v>259.8633627200758</v>
+        <v>49.45085318761131</v>
       </c>
       <c r="G4" t="n">
-        <v>259.8633627200758</v>
+        <v>49.45085318761131</v>
       </c>
       <c r="H4" t="n">
-        <v>101.3321866053276</v>
+        <v>49.45085318761131</v>
       </c>
       <c r="I4" t="n">
-        <v>101.3321866053276</v>
+        <v>49.45085318761131</v>
       </c>
       <c r="J4" t="n">
-        <v>49.45085318761137</v>
+        <v>49.45085318761131</v>
       </c>
       <c r="K4" t="n">
-        <v>95.72733544563138</v>
+        <v>95.72733544563121</v>
       </c>
       <c r="L4" t="n">
-        <v>210.4717349036529</v>
+        <v>210.4717349036526</v>
       </c>
       <c r="M4" t="n">
-        <v>341.8427388746858</v>
+        <v>341.8427388746853</v>
       </c>
       <c r="N4" t="n">
-        <v>475.5246504217721</v>
+        <v>475.5246504217715</v>
       </c>
       <c r="O4" t="n">
-        <v>582.9852372653908</v>
+        <v>582.9852372653901</v>
       </c>
       <c r="P4" t="n">
-        <v>651.4156514712604</v>
+        <v>651.4156514712596</v>
       </c>
       <c r="Q4" t="n">
-        <v>625.8028163164295</v>
+        <v>651.4156514712596</v>
       </c>
       <c r="R4" t="n">
-        <v>625.8028163164295</v>
+        <v>651.4156514712596</v>
       </c>
       <c r="S4" t="n">
-        <v>409.9800021324115</v>
+        <v>435.5928372872417</v>
       </c>
       <c r="T4" t="n">
-        <v>409.9800021324115</v>
+        <v>435.5928372872417</v>
       </c>
       <c r="U4" t="n">
-        <v>409.9800021324115</v>
+        <v>435.5928372872417</v>
       </c>
       <c r="V4" t="n">
-        <v>409.9800021324115</v>
+        <v>435.5928372872417</v>
       </c>
       <c r="W4" t="n">
-        <v>409.9800021324115</v>
+        <v>146.175667250281</v>
       </c>
       <c r="X4" t="n">
-        <v>409.9800021324115</v>
+        <v>146.175667250281</v>
       </c>
       <c r="Y4" t="n">
-        <v>409.9800021324115</v>
+        <v>49.45085318761131</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2247.308246834948</v>
+        <v>1562.968440970219</v>
       </c>
       <c r="C5" t="n">
-        <v>1878.345729894537</v>
+        <v>1194.005924029808</v>
       </c>
       <c r="D5" t="n">
-        <v>1520.080031287786</v>
+        <v>1194.005924029808</v>
       </c>
       <c r="E5" t="n">
-        <v>1134.291778689542</v>
+        <v>1194.005924029808</v>
       </c>
       <c r="F5" t="n">
-        <v>723.3058738999346</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
         <v>381.1377017843616</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X5" t="n">
-        <v>2247.308246834948</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="Y5" t="n">
-        <v>2247.308246834948</v>
+        <v>1949.568281034341</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4656,7 +4656,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>609.8092554337209</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>609.8092554337209</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>609.8092554337209</v>
       </c>
       <c r="V7" t="n">
-        <v>281.9325327183818</v>
+        <v>609.8092554337209</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1525.74665604171</v>
+        <v>1723.03492661696</v>
       </c>
       <c r="C8" t="n">
-        <v>1525.74665604171</v>
+        <v>1354.072409676548</v>
       </c>
       <c r="D8" t="n">
-        <v>1167.480957434959</v>
+        <v>1354.072409676548</v>
       </c>
       <c r="E8" t="n">
-        <v>781.6927048367149</v>
+        <v>968.2841570783037</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,7 +4802,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278601</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X8" t="n">
-        <v>1915.885988017521</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="Y8" t="n">
-        <v>1525.74665604171</v>
+        <v>1723.03492661696</v>
       </c>
     </row>
     <row r="9">
@@ -4857,55 +4857,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>391.878965009939</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>612.6715441534691</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T10" t="n">
-        <v>612.6715441534691</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U10" t="n">
-        <v>612.6715441534691</v>
+        <v>76.52029211334911</v>
       </c>
       <c r="V10" t="n">
-        <v>612.6715441534691</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>612.6715441534691</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>612.6715441534691</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>391.878965009939</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5018,19 +5018,19 @@
         <v>2146.023796791561</v>
       </c>
       <c r="C11" t="n">
-        <v>1777.061279851149</v>
+        <v>2000.689988551792</v>
       </c>
       <c r="D11" t="n">
-        <v>1418.795581244399</v>
+        <v>1642.424289945041</v>
       </c>
       <c r="E11" t="n">
-        <v>1033.007328646155</v>
+        <v>1256.636037346797</v>
       </c>
       <c r="F11" t="n">
-        <v>622.0214238565472</v>
+        <v>845.6501325571896</v>
       </c>
       <c r="G11" t="n">
-        <v>206.9489737015438</v>
+        <v>430.5776824021862</v>
       </c>
       <c r="H11" t="n">
         <v>132.9940820109534</v>
@@ -5042,22 +5042,22 @@
         <v>447.2819632298006</v>
       </c>
       <c r="K11" t="n">
-        <v>1102.0052953651</v>
+        <v>781.1013369196471</v>
       </c>
       <c r="L11" t="n">
-        <v>1966.524111018455</v>
+        <v>1321.447066241378</v>
       </c>
       <c r="M11" t="n">
-        <v>2500.056015690379</v>
+        <v>2299.997369071206</v>
       </c>
       <c r="N11" t="n">
-        <v>3046.834832749162</v>
+        <v>3279.749641297853</v>
       </c>
       <c r="O11" t="n">
-        <v>3549.807303628499</v>
+        <v>3782.72211217719</v>
       </c>
       <c r="P11" t="n">
-        <v>3967.304637781062</v>
+        <v>4177.496478534368</v>
       </c>
       <c r="Q11" t="n">
         <v>4425.78284029005</v>
@@ -5081,7 +5081,7 @@
         <v>3296.228727092574</v>
       </c>
       <c r="X11" t="n">
-        <v>2922.762968831495</v>
+        <v>2922.762968831494</v>
       </c>
       <c r="Y11" t="n">
         <v>2532.623636855683</v>
@@ -5094,16 +5094,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>966.0289212993474</v>
+        <v>966.0289212993473</v>
       </c>
       <c r="C12" t="n">
-        <v>791.5758920182204</v>
+        <v>791.5758920182203</v>
       </c>
       <c r="D12" t="n">
-        <v>642.6414823569692</v>
+        <v>642.641482356969</v>
       </c>
       <c r="E12" t="n">
-        <v>483.4040273515136</v>
+        <v>483.4040273515135</v>
       </c>
       <c r="F12" t="n">
         <v>336.8694693783985</v>
@@ -5112,7 +5112,7 @@
         <v>200.5063692110166</v>
       </c>
       <c r="H12" t="n">
-        <v>110.0044748488841</v>
+        <v>110.0044748488842</v>
       </c>
       <c r="I12" t="n">
         <v>90.99718325042211</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>942.1013927555116</v>
+        <v>555.7950495242267</v>
       </c>
       <c r="C13" t="n">
-        <v>773.1652098276047</v>
+        <v>386.8588665963198</v>
       </c>
       <c r="D13" t="n">
-        <v>773.1652098276047</v>
+        <v>386.8588665963198</v>
       </c>
       <c r="E13" t="n">
-        <v>625.2521162452117</v>
+        <v>386.8588665963198</v>
       </c>
       <c r="F13" t="n">
-        <v>502.2428838395</v>
+        <v>258.7000198757032</v>
       </c>
       <c r="G13" t="n">
-        <v>334.540047214219</v>
+        <v>90.99718325042211</v>
       </c>
       <c r="H13" t="n">
-        <v>188.3228604320768</v>
+        <v>90.99718325042211</v>
       </c>
       <c r="I13" t="n">
         <v>90.99718325042211</v>
       </c>
       <c r="J13" t="n">
-        <v>136.1198156973576</v>
+        <v>136.1198156973577</v>
       </c>
       <c r="K13" t="n">
         <v>340.106998646234</v>
@@ -5221,28 +5221,28 @@
         <v>1951.779614906731</v>
       </c>
       <c r="R13" t="n">
-        <v>1861.949157664259</v>
+        <v>1951.779614906731</v>
       </c>
       <c r="S13" t="n">
-        <v>1861.949157664259</v>
+        <v>1951.779614906731</v>
       </c>
       <c r="T13" t="n">
-        <v>1861.949157664259</v>
+        <v>1730.012999476257</v>
       </c>
       <c r="U13" t="n">
-        <v>1861.949157664259</v>
+        <v>1440.910132601901</v>
       </c>
       <c r="V13" t="n">
-        <v>1861.949157664259</v>
+        <v>1186.225644396014</v>
       </c>
       <c r="W13" t="n">
-        <v>1572.531987627299</v>
+        <v>1186.225644396014</v>
       </c>
       <c r="X13" t="n">
-        <v>1344.542436729281</v>
+        <v>958.2360934979965</v>
       </c>
       <c r="Y13" t="n">
-        <v>1123.749857585751</v>
+        <v>737.4435143544664</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5309,19 +5309,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5361,7 +5361,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>413.3805104860112</v>
+        <v>481.6968904858344</v>
       </c>
       <c r="C16" t="n">
-        <v>413.3805104860112</v>
+        <v>312.7607075579275</v>
       </c>
       <c r="D16" t="n">
-        <v>263.2638710736754</v>
+        <v>312.7607075579275</v>
       </c>
       <c r="E16" t="n">
-        <v>263.2638710736754</v>
+        <v>312.7607075579275</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>165.8707600600171</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5434,13 +5434,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K16" t="n">
         <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5449,7 +5449,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384227</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1163.957642384227</v>
+        <v>999.1036114208124</v>
       </c>
       <c r="W16" t="n">
-        <v>874.5404723472661</v>
+        <v>709.6864413838517</v>
       </c>
       <c r="X16" t="n">
-        <v>646.5509214492488</v>
+        <v>481.6968904858344</v>
       </c>
       <c r="Y16" t="n">
-        <v>595.0289753162509</v>
+        <v>481.6968904858344</v>
       </c>
     </row>
     <row r="17">
@@ -5492,73 +5492,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2432.390822294613</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353395</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
@@ -5592,40 +5592,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>339.1038984121913</v>
+        <v>550.3214813792652</v>
       </c>
       <c r="C19" t="n">
-        <v>339.1038984121913</v>
+        <v>550.3214813792652</v>
       </c>
       <c r="D19" t="n">
-        <v>339.1038984121913</v>
+        <v>400.2048419669294</v>
       </c>
       <c r="E19" t="n">
-        <v>339.1038984121913</v>
+        <v>252.2917483845362</v>
       </c>
       <c r="F19" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5710,13 +5710,13 @@
         <v>999.1036114208126</v>
       </c>
       <c r="W19" t="n">
-        <v>969.5344932839785</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="X19" t="n">
-        <v>741.5449423859611</v>
+        <v>771.1140605227953</v>
       </c>
       <c r="Y19" t="n">
-        <v>520.752363242431</v>
+        <v>550.3214813792652</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H20" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1014.851249206415</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1465.885462454824</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M20" t="n">
-        <v>1999.417367126749</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N20" t="n">
-        <v>2979.169639353395</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5805,13 +5805,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E21" t="n">
         <v>487.9678785494859</v>
@@ -5820,7 +5820,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5835,7 +5835,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>508.0400813400984</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="C22" t="n">
-        <v>339.1038984121915</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="D22" t="n">
-        <v>339.1038984121915</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="E22" t="n">
-        <v>339.1038984121915</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="F22" t="n">
-        <v>339.1038984121915</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121915</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5911,10 +5911,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1682.572334454733</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1682.572334454733</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1682.572334454733</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1427.887846248846</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>1138.470676211886</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X22" t="n">
-        <v>910.4811253138682</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y22" t="n">
-        <v>689.6885461703381</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O23" t="n">
         <v>4075.973927750058</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6069,10 +6069,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6145,10 +6145,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6160,22 +6160,22 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
         <v>1270.093287563029</v>
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6227,16 +6227,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O26" t="n">
         <v>3482.142110232732</v>
@@ -6251,25 +6251,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>264.4972173763013</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839437</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839437</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839437</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423045</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423045</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6397,7 +6397,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1218.236891347406</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>963.5524031415189</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>674.1352331045583</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>446.145682206541</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y28" t="n">
-        <v>446.145682206541</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="29">
@@ -6455,7 +6455,7 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6464,19 +6464,19 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>888.4135721382786</v>
       </c>
       <c r="L29" t="n">
-        <v>1898.858917622688</v>
+        <v>1339.447785386687</v>
       </c>
       <c r="M29" t="n">
-        <v>2432.390822294613</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N29" t="n">
-        <v>2979.169639353395</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P29" t="n">
         <v>4195.497197679678</v>
@@ -6543,10 +6543,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839437</v>
+        <v>432.2000540015821</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839437</v>
+        <v>263.2638710736752</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839437</v>
+        <v>263.2638710736752</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839437</v>
+        <v>263.2638710736752</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736751</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6619,13 +6619,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K31" t="n">
         <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6634,37 +6634,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.196154437386</v>
+        <v>1493.394130016803</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1204.291263142447</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>949.6067749365601</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>660.1896048995994</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>432.2000540015821</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>432.2000540015821</v>
       </c>
     </row>
     <row r="32">
@@ -6692,7 +6692,7 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6704,19 +6704,19 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>3931.363334276589</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q32" t="n">
         <v>4653.975400188666</v>
@@ -6780,10 +6780,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6871,7 +6871,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
@@ -6917,46 +6917,46 @@
         <v>1802.338352862865</v>
       </c>
       <c r="D35" t="n">
-        <v>1476.250191011643</v>
+        <v>1476.250191011642</v>
       </c>
       <c r="E35" t="n">
         <v>1122.639475168926</v>
       </c>
       <c r="F35" t="n">
-        <v>743.8311071348462</v>
+        <v>743.8311071348461</v>
       </c>
       <c r="G35" t="n">
-        <v>360.9361937353703</v>
+        <v>360.9361937353701</v>
       </c>
       <c r="H35" t="n">
-        <v>95.53013009966512</v>
+        <v>95.53013009966521</v>
       </c>
       <c r="I35" t="n">
-        <v>85.71076809466147</v>
+        <v>85.71076809466149</v>
       </c>
       <c r="J35" t="n">
-        <v>274.5898990536869</v>
+        <v>274.589899053687</v>
       </c>
       <c r="K35" t="n">
-        <v>929.3132311889865</v>
+        <v>608.4092727435334</v>
       </c>
       <c r="L35" t="n">
-        <v>1793.832046842341</v>
+        <v>1304.604516913483</v>
       </c>
       <c r="M35" t="n">
-        <v>2327.363951514266</v>
+        <v>1838.136421585407</v>
       </c>
       <c r="N35" t="n">
-        <v>2874.142768573048</v>
+        <v>2384.91523864419</v>
       </c>
       <c r="O35" t="n">
-        <v>3583.460610063411</v>
+        <v>3264.879888973644</v>
       </c>
       <c r="P35" t="n">
-        <v>3978.234976420589</v>
+        <v>3978.23497642059</v>
       </c>
       <c r="Q35" t="n">
-        <v>4226.521338176271</v>
+        <v>4226.521338176272</v>
       </c>
       <c r="R35" t="n">
         <v>4285.538404733074</v>
@@ -6965,7 +6965,7 @@
         <v>4207.425273015697</v>
       </c>
       <c r="T35" t="n">
-        <v>4033.625062155446</v>
+        <v>4033.625062155447</v>
       </c>
       <c r="U35" t="n">
         <v>3812.272122184811</v>
@@ -7011,16 +7011,16 @@
         <v>104.7180596931235</v>
       </c>
       <c r="I36" t="n">
-        <v>85.71076809466147</v>
+        <v>85.71076809466149</v>
       </c>
       <c r="J36" t="n">
         <v>179.3880375852788</v>
       </c>
       <c r="K36" t="n">
-        <v>417.652236565626</v>
+        <v>417.6522365656261</v>
       </c>
       <c r="L36" t="n">
-        <v>784.3503968782913</v>
+        <v>784.3503968782915</v>
       </c>
       <c r="M36" t="n">
         <v>1231.626722100607</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>521.4705839083498</v>
+        <v>670.9415119830604</v>
       </c>
       <c r="C37" t="n">
-        <v>384.7119377359705</v>
+        <v>670.9415119830604</v>
       </c>
       <c r="D37" t="n">
-        <v>384.7119377359705</v>
+        <v>630.8718259864052</v>
       </c>
       <c r="E37" t="n">
-        <v>335.9484787067976</v>
+        <v>515.1362691595396</v>
       </c>
       <c r="F37" t="n">
-        <v>221.2360679644149</v>
+        <v>400.4238584171567</v>
       </c>
       <c r="G37" t="n">
-        <v>85.71076809466147</v>
+        <v>264.8985585474032</v>
       </c>
       <c r="H37" t="n">
-        <v>85.71076809466147</v>
+        <v>150.8589085207886</v>
       </c>
       <c r="I37" t="n">
-        <v>85.71076809466147</v>
+        <v>85.71076809466149</v>
       </c>
       <c r="J37" t="n">
-        <v>162.3706043156897</v>
+        <v>162.3706043156894</v>
       </c>
       <c r="K37" t="n">
-        <v>397.8949910386587</v>
+        <v>397.8949910386584</v>
       </c>
       <c r="L37" t="n">
-        <v>745.9919932612473</v>
+        <v>745.9919932612472</v>
       </c>
       <c r="M37" t="n">
-        <v>1121.686242634889</v>
+        <v>1121.686242634888</v>
       </c>
       <c r="N37" t="n">
         <v>1494.631823114846</v>
@@ -7111,34 +7111,34 @@
         <v>1825.498625809352</v>
       </c>
       <c r="P37" t="n">
-        <v>2089.643330017104</v>
+        <v>2089.643330017103</v>
       </c>
       <c r="Q37" t="n">
-        <v>2198.790829943712</v>
+        <v>2198.79082994371</v>
       </c>
       <c r="R37" t="n">
-        <v>2141.137909456767</v>
+        <v>2141.137909456766</v>
       </c>
       <c r="S37" t="n">
-        <v>1981.629562039122</v>
+        <v>1981.62956203912</v>
       </c>
       <c r="T37" t="n">
-        <v>1792.040483364175</v>
+        <v>1792.040483364174</v>
       </c>
       <c r="U37" t="n">
-        <v>1535.115153245346</v>
+        <v>1535.115153245345</v>
       </c>
       <c r="V37" t="n">
-        <v>1312.608201794987</v>
+        <v>1312.608201794986</v>
       </c>
       <c r="W37" t="n">
-        <v>1055.368568513554</v>
+        <v>1055.368568513553</v>
       </c>
       <c r="X37" t="n">
-        <v>859.5565543710644</v>
+        <v>859.5565543710629</v>
       </c>
       <c r="Y37" t="n">
-        <v>670.9415119830619</v>
+        <v>670.9415119830604</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F38" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467804</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J38" t="n">
-        <v>437.4316968760676</v>
+        <v>437.4316968760677</v>
       </c>
       <c r="K38" t="n">
-        <v>771.2510705659141</v>
+        <v>771.2510705659142</v>
       </c>
       <c r="L38" t="n">
         <v>1222.285283814323</v>
@@ -7190,34 +7190,34 @@
         <v>2805.568476424367</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094414</v>
+        <v>3474.791320094416</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603404</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.34584483446</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309628</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>956.1786549456147</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C39" t="n">
-        <v>781.7256256644877</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D39" t="n">
-        <v>632.7912160032365</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E39" t="n">
-        <v>473.553760997781</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F39" t="n">
-        <v>327.019203024666</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G39" t="n">
-        <v>190.6561028572846</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H39" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873068</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
@@ -7266,25 +7266,25 @@
         <v>1700.58591445709</v>
       </c>
       <c r="O39" t="n">
-        <v>2111.547193875145</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P39" t="n">
-        <v>2422.046785351248</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q39" t="n">
         <v>2579.688342997847</v>
       </c>
       <c r="R39" t="n">
-        <v>2579.543989590363</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S39" t="n">
-        <v>2450.106103083843</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T39" t="n">
         <v>2257.463102761698</v>
       </c>
       <c r="U39" t="n">
-        <v>2029.395255896114</v>
+        <v>2029.395255896113</v>
       </c>
       <c r="V39" t="n">
         <v>1794.243147664371</v>
@@ -7293,10 +7293,10 @@
         <v>1540.005790936169</v>
       </c>
       <c r="X39" t="n">
-        <v>1332.154290730637</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y39" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="40">
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502698006</v>
       </c>
       <c r="C40" t="n">
         <v>652.6145002899669</v>
@@ -7315,34 +7315,34 @@
         <v>549.9474938257046</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913847</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415476</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H40" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960316</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973146</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982175</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M40" t="n">
         <v>1176.995117350173</v>
       </c>
       <c r="N40" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O40" t="n">
         <v>1910.743863481264</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347424</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519669</v>
+        <v>908.299882151967</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467804</v>
       </c>
       <c r="G41" t="n">
-        <v>331.2808843398493</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668979</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J41" t="n">
-        <v>437.4316968760676</v>
+        <v>437.4316968760678</v>
       </c>
       <c r="K41" t="n">
         <v>1092.155029011367</v>
@@ -7418,43 +7418,43 @@
         <v>1543.189242259776</v>
       </c>
       <c r="M41" t="n">
-        <v>2076.7211469317</v>
+        <v>2076.721146931701</v>
       </c>
       <c r="N41" t="n">
         <v>2623.499963990483</v>
       </c>
       <c r="O41" t="n">
-        <v>3126.47243486982</v>
+        <v>3290.208794490544</v>
       </c>
       <c r="P41" t="n">
-        <v>3684.983160847721</v>
+        <v>3684.983160847722</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603404</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.34584483446</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309628</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641924</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863833</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468336</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146295</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="42">
@@ -7464,43 +7464,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C42" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D42" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E42" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F42" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G42" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572842</v>
       </c>
       <c r="H42" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L42" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O42" t="n">
         <v>2111.547193875144</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257042</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0229611302707</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
         <v>786.3326864982171</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N43" t="n">
         <v>1564.908879308444</v>
@@ -7588,7 +7588,7 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R43" t="n">
         <v>2271.591606277852</v>
@@ -7597,22 +7597,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V43" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X43" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="44">
@@ -7628,61 +7628,61 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467795</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G44" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J44" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K44" t="n">
-        <v>1045.699547878784</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L44" t="n">
-        <v>1496.733761127193</v>
+        <v>1561.793016801447</v>
       </c>
       <c r="M44" t="n">
-        <v>2030.265665799118</v>
+        <v>2095.324921473371</v>
       </c>
       <c r="N44" t="n">
-        <v>2577.0444828579</v>
+        <v>2642.103738532154</v>
       </c>
       <c r="O44" t="n">
-        <v>3080.016953737237</v>
+        <v>3145.076209411491</v>
       </c>
       <c r="P44" t="n">
-        <v>3474.791320094415</v>
+        <v>3539.850575768669</v>
       </c>
       <c r="Q44" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277657</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.34584483446</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309628</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863833</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W44" t="n">
         <v>3040.963574146293</v>
@@ -7691,7 +7691,7 @@
         <v>2714.947448833287</v>
       </c>
       <c r="Y44" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="45">
@@ -7722,13 +7722,13 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J45" t="n">
         <v>174.8241863873065</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L45" t="n">
         <v>779.786545680319</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257044</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913846</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415475</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643398</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0229611302707</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J46" t="n">
         <v>172.7749345960314</v>
@@ -7810,7 +7810,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M46" t="n">
         <v>1176.995117350173</v>
@@ -7825,31 +7825,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q46" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R46" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
         <v>1953.038372570352</v>
       </c>
       <c r="U46" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V46" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W46" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X46" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>59.89658222235983</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>297.6621116988024</v>
       </c>
       <c r="Q3" t="n">
-        <v>94.93166526748134</v>
+        <v>49.53786909056618</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,10 +8304,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,25 +8690,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>90.21365259931503</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>22.95249272261174</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>219.3344627260163</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>344.7025836476839</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>231.5010718068643</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9647,10 +9647,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>401.5033668799356</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9875,19 +9875,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476838</v>
+        <v>219.3344627260163</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -10112,22 +10112,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>103.7862464855144</v>
       </c>
       <c r="L29" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,13 +10361,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>80.35488666587537</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10586,10 +10586,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>247.637404971253</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,10 +10598,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>208.4296672838644</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>277.2206841544135</v>
+        <v>277.2206841544153</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11072,10 +11072,10 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>165.3902622431551</v>
       </c>
       <c r="P41" t="n">
-        <v>165.3902622431545</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>277.2206841544144</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>187.8883066283069</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>221.3924216136357</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>221.3924216136363</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>23.64190794127677</v>
+        <v>18.54378976952052</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-2.688691965331182e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>96.41917990352177</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>167.5779266804268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>135.0126561404713</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>257.2495713811248</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>7.667757668018567</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>182.1679443159941</v>
       </c>
     </row>
     <row r="23">
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>105.0742887270139</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>16.14213605696659</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24616,10 +24616,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>77.41759119918764</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>53.73645647354657</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>16.14213605696666</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>39.93028455063705</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25309,16 +25309,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>147.976218793965</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>135.3910597106556</v>
       </c>
       <c r="D37" t="n">
-        <v>116.75971163024</v>
+        <v>77.09072249355114</v>
       </c>
       <c r="E37" t="n">
-        <v>66.3023768197157</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>112.8992535263484</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>64.49665902186575</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25555,13 +25555,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>-6.039613253960852e-13</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>-4.007905118896815e-13</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>-4.405364961712621e-13</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1111329.826896171</v>
+        <v>1111329.826896172</v>
       </c>
     </row>
     <row r="6">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>287364.619452499</v>
+        <v>287364.6194524991</v>
       </c>
       <c r="C2" t="n">
         <v>287364.6194524994</v>
@@ -26320,16 +26320,16 @@
         <v>287364.6194524995</v>
       </c>
       <c r="E2" t="n">
-        <v>271789.2579547323</v>
+        <v>271789.2579547324</v>
       </c>
       <c r="F2" t="n">
-        <v>277957.2508208881</v>
+        <v>277957.2508208882</v>
       </c>
       <c r="G2" t="n">
         <v>277957.2508208881</v>
       </c>
       <c r="H2" t="n">
-        <v>277957.2508208881</v>
+        <v>277957.2508208884</v>
       </c>
       <c r="I2" t="n">
         <v>277957.2508208881</v>
@@ -26338,7 +26338,7 @@
         <v>277957.2508208881</v>
       </c>
       <c r="K2" t="n">
-        <v>277957.2508208881</v>
+        <v>277957.2508208882</v>
       </c>
       <c r="L2" t="n">
         <v>277957.2508208881</v>
@@ -26347,13 +26347,13 @@
         <v>284336.7722441145</v>
       </c>
       <c r="N2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="O2" t="n">
         <v>287364.6194524993</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524991</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>524572.1009423649</v>
+        <v>524572.1009423642</v>
       </c>
       <c r="C3" t="n">
-        <v>62156.63307939613</v>
+        <v>62156.63307939687</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26375,7 +26375,7 @@
         <v>710344.0944560545</v>
       </c>
       <c r="F3" t="n">
-        <v>16345.7753543777</v>
+        <v>16345.77535437765</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>161731.4878927424</v>
+        <v>161731.4878927422</v>
       </c>
       <c r="K3" t="n">
-        <v>14451.62702442994</v>
+        <v>14451.62702443012</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>110226.2270698832</v>
       </c>
       <c r="N3" t="n">
-        <v>12095.50018449617</v>
+        <v>12095.50018449623</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>227380.8534908785</v>
+        <v>227380.8534908787</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26424,22 +26424,22 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
-        <v>24938.73802932696</v>
+        <v>24938.73802932697</v>
       </c>
       <c r="F4" t="n">
+        <v>28561.83935289575</v>
+      </c>
+      <c r="G4" t="n">
         <v>28561.83935289576</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>28561.83935289574</v>
+      </c>
+      <c r="I4" t="n">
         <v>28561.83935289575</v>
       </c>
-      <c r="H4" t="n">
-        <v>28561.83935289575</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>28561.83935289576</v>
-      </c>
-      <c r="J4" t="n">
-        <v>28561.83935289575</v>
       </c>
       <c r="K4" t="n">
         <v>28561.83935289575</v>
@@ -26448,16 +26448,16 @@
         <v>28561.83935289575</v>
       </c>
       <c r="M4" t="n">
-        <v>52933.71881508939</v>
+        <v>52933.71881508933</v>
       </c>
       <c r="N4" t="n">
+        <v>64344.18042540624</v>
+      </c>
+      <c r="O4" t="n">
         <v>64344.18042540622</v>
       </c>
-      <c r="O4" t="n">
-        <v>64344.18042540624</v>
-      </c>
       <c r="P4" t="n">
-        <v>64344.18042540623</v>
+        <v>64344.18042540617</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78391.31548084118</v>
+        <v>78391.31548084112</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26500,16 +26500,16 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>91575.39782900206</v>
+        <v>91575.39782900208</v>
       </c>
       <c r="N5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480615</v>
       </c>
       <c r="O5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480615</v>
       </c>
       <c r="P5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480615</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-542979.6504615856</v>
+        <v>-542979.6504615849</v>
       </c>
       <c r="C6" t="n">
-        <v>-67573.50715333948</v>
+        <v>-67573.50715334024</v>
       </c>
       <c r="D6" t="n">
-        <v>-5416.874073943269</v>
+        <v>-5416.87407394324</v>
       </c>
       <c r="E6" t="n">
-        <v>-556408.5658739039</v>
+        <v>-556519.8184560307</v>
       </c>
       <c r="F6" t="n">
-        <v>136666.117859901</v>
+        <v>136598.9223696753</v>
       </c>
       <c r="G6" t="n">
-        <v>153011.8932142787</v>
+        <v>152944.6977240529</v>
       </c>
       <c r="H6" t="n">
-        <v>153011.8932142787</v>
+        <v>152944.6977240532</v>
       </c>
       <c r="I6" t="n">
-        <v>153011.8932142787</v>
+        <v>152944.6977240529</v>
       </c>
       <c r="J6" t="n">
-        <v>-8719.594678463618</v>
+        <v>-8786.790168689236</v>
       </c>
       <c r="K6" t="n">
-        <v>138560.2661898488</v>
+        <v>138493.0706996229</v>
       </c>
       <c r="L6" t="n">
-        <v>153011.8932142787</v>
+        <v>152944.6977240529</v>
       </c>
       <c r="M6" t="n">
-        <v>29601.42853013986</v>
+        <v>29579.80105008004</v>
       </c>
       <c r="N6" t="n">
-        <v>121546.9971677909</v>
+        <v>121546.9971677907</v>
       </c>
       <c r="O6" t="n">
-        <v>133642.4973522869</v>
+        <v>133642.497352287</v>
       </c>
       <c r="P6" t="n">
-        <v>133642.497352287</v>
+        <v>133642.4973522868</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>31.85576138797235</v>
+        <v>31.85576138797227</v>
       </c>
       <c r="N2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>329.4067457915847</v>
+        <v>329.4067457915842</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26774,7 +26774,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="P3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>618.1356648451421</v>
+        <v>618.1356648451414</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26820,10 +26820,10 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1071.384601183268</v>
+        <v>1071.384601183269</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="O4" t="n">
         <v>1014.336461208615</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>31.85576138797235</v>
+        <v>31.85576138797227</v>
       </c>
       <c r="N2" t="n">
-        <v>15.11937523062021</v>
+        <v>15.11937523062029</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>329.4067457915847</v>
+        <v>329.4067457915842</v>
       </c>
       <c r="C3" t="n">
-        <v>48.33691842550189</v>
+        <v>48.33691842550246</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>618.1356648451421</v>
+        <v>618.1356648451414</v>
       </c>
       <c r="C4" t="n">
-        <v>56.15160790941354</v>
+        <v>56.15160790941421</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>463.1775178757208</v>
       </c>
       <c r="F4" t="n">
-        <v>57.04813997465394</v>
+        <v>57.04813997465379</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>618.1356648451421</v>
+        <v>618.1356648451414</v>
       </c>
       <c r="K4" t="n">
-        <v>56.15160790941354</v>
+        <v>56.15160790941421</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.0491884540588</v>
+        <v>340.0491884540592</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>618.1356648451421</v>
+        <v>618.1356648451414</v>
       </c>
       <c r="K4" t="n">
-        <v>56.15160790941354</v>
+        <v>56.15160790941421</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27267,7 +27267,7 @@
         <v>463.1775178757208</v>
       </c>
       <c r="N4" t="n">
-        <v>57.04813997465394</v>
+        <v>57.04813997465379</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>190.5595116627882</v>
+        <v>25.89036208284284</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>325.91284498878</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>159.4228099035514</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>34.10446212314142</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27503,19 +27503,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>56.16649553541978</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>197.3088343610248</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>175.2468009487434</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,13 +27552,13 @@
         <v>167.3969671939166</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.9458643536007</v>
       </c>
       <c r="I4" t="n">
-        <v>137.5869091062982</v>
+        <v>137.5869091062983</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>51.36252008353917</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>11.06491783388248</v>
+        <v>36.42162463716517</v>
       </c>
       <c r="R4" t="n">
         <v>150.5844444151174</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>122.8270874300518</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>15.92067573951471</v>
       </c>
       <c r="G5" t="n">
-        <v>75.03767962637784</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,31 +27816,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>95.0090074650327</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>96.68503059263386</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>176.0420789855379</v>
+        <v>67.39376850200784</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28056,19 +28056,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>97.8426732975832</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>229.7861061337732</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.85576138797235</v>
+        <v>31.85576138797227</v>
       </c>
       <c r="C35" t="n">
-        <v>31.85576138797235</v>
+        <v>31.85576138797227</v>
       </c>
       <c r="D35" t="n">
-        <v>31.85576138797235</v>
+        <v>31.85576138797227</v>
       </c>
       <c r="E35" t="n">
-        <v>31.85576138797235</v>
+        <v>31.85576138797227</v>
       </c>
       <c r="F35" t="n">
-        <v>31.85576138797235</v>
+        <v>31.85576138797227</v>
       </c>
       <c r="G35" t="n">
-        <v>31.85576138797235</v>
+        <v>31.85576138797227</v>
       </c>
       <c r="H35" t="n">
-        <v>31.85576138797235</v>
+        <v>31.85576138797227</v>
       </c>
       <c r="I35" t="n">
-        <v>31.85576138797235</v>
+        <v>31.85576138797227</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.85576138797235</v>
+        <v>31.85576138797227</v>
       </c>
       <c r="T35" t="n">
-        <v>31.85576138797235</v>
+        <v>31.85576138797227</v>
       </c>
       <c r="U35" t="n">
-        <v>31.85576138797235</v>
+        <v>31.85576138797227</v>
       </c>
       <c r="V35" t="n">
-        <v>31.85576138797235</v>
+        <v>31.85576138797227</v>
       </c>
       <c r="W35" t="n">
-        <v>31.85576138797235</v>
+        <v>31.85576138797227</v>
       </c>
       <c r="X35" t="n">
-        <v>31.85576138797235</v>
+        <v>31.85576138797227</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.85576138797235</v>
+        <v>31.85576138797227</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.85576138797235</v>
+        <v>31.85576138797227</v>
       </c>
       <c r="C37" t="n">
-        <v>31.85576138797235</v>
+        <v>31.85576138797227</v>
       </c>
       <c r="D37" t="n">
-        <v>31.85576138797235</v>
+        <v>31.85576138797227</v>
       </c>
       <c r="E37" t="n">
-        <v>31.85576138797235</v>
+        <v>31.85576138797227</v>
       </c>
       <c r="F37" t="n">
-        <v>31.85576138797235</v>
+        <v>31.85576138797227</v>
       </c>
       <c r="G37" t="n">
-        <v>31.85576138797235</v>
+        <v>31.85576138797227</v>
       </c>
       <c r="H37" t="n">
-        <v>31.85576138797235</v>
+        <v>31.85576138797227</v>
       </c>
       <c r="I37" t="n">
-        <v>31.85576138797235</v>
+        <v>31.85576138797227</v>
       </c>
       <c r="J37" t="n">
-        <v>31.85576138797235</v>
+        <v>31.85576138797227</v>
       </c>
       <c r="K37" t="n">
-        <v>31.85576138797235</v>
+        <v>31.85576138797227</v>
       </c>
       <c r="L37" t="n">
-        <v>31.85576138797235</v>
+        <v>31.85576138797227</v>
       </c>
       <c r="M37" t="n">
-        <v>31.85576138797235</v>
+        <v>31.85576138797227</v>
       </c>
       <c r="N37" t="n">
-        <v>31.85576138797235</v>
+        <v>31.85576138797227</v>
       </c>
       <c r="O37" t="n">
-        <v>31.85576138797235</v>
+        <v>31.85576138797227</v>
       </c>
       <c r="P37" t="n">
-        <v>31.85576138797235</v>
+        <v>31.85576138797227</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.85576138797235</v>
+        <v>31.85576138797227</v>
       </c>
       <c r="R37" t="n">
-        <v>31.85576138797235</v>
+        <v>31.85576138797227</v>
       </c>
       <c r="S37" t="n">
-        <v>31.85576138797235</v>
+        <v>31.85576138797227</v>
       </c>
       <c r="T37" t="n">
-        <v>31.85576138797235</v>
+        <v>31.85576138797227</v>
       </c>
       <c r="U37" t="n">
-        <v>31.85576138797235</v>
+        <v>31.85576138797227</v>
       </c>
       <c r="V37" t="n">
-        <v>31.85576138797235</v>
+        <v>31.85576138797227</v>
       </c>
       <c r="W37" t="n">
-        <v>31.85576138797235</v>
+        <v>31.85576138797227</v>
       </c>
       <c r="X37" t="n">
-        <v>31.85576138797235</v>
+        <v>31.85576138797227</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.85576138797235</v>
+        <v>31.85576138797227</v>
       </c>
     </row>
     <row r="38">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859125</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.324248224287777</v>
+        <v>1.324248224287774</v>
       </c>
       <c r="H2" t="n">
-        <v>13.5619571269872</v>
+        <v>13.56195712698717</v>
       </c>
       <c r="I2" t="n">
-        <v>51.05307966685456</v>
+        <v>51.05307966685448</v>
       </c>
       <c r="J2" t="n">
-        <v>112.3939127261448</v>
+        <v>112.3939127261446</v>
       </c>
       <c r="K2" t="n">
-        <v>168.4493400602464</v>
+        <v>168.4493400602461</v>
       </c>
       <c r="L2" t="n">
-        <v>208.9763016542935</v>
+        <v>208.9763016542932</v>
       </c>
       <c r="M2" t="n">
-        <v>232.5264010129713</v>
+        <v>232.5264010129709</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2889212802289</v>
+        <v>236.2889212802285</v>
       </c>
       <c r="O2" t="n">
-        <v>223.1209279999673</v>
+        <v>223.1209279999669</v>
       </c>
       <c r="P2" t="n">
-        <v>190.4285499628628</v>
+        <v>190.4285499628625</v>
       </c>
       <c r="Q2" t="n">
-        <v>143.0039104305568</v>
+        <v>143.0039104305565</v>
       </c>
       <c r="R2" t="n">
-        <v>83.18430751891714</v>
+        <v>83.184307518917</v>
       </c>
       <c r="S2" t="n">
-        <v>30.17630641095775</v>
+        <v>30.17630641095769</v>
       </c>
       <c r="T2" t="n">
-        <v>5.796896601819746</v>
+        <v>5.796896601819737</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1059398579430221</v>
+        <v>0.105939857943022</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7085352645328427</v>
+        <v>0.7085352645328414</v>
       </c>
       <c r="H3" t="n">
-        <v>6.842959002198771</v>
+        <v>6.842959002198759</v>
       </c>
       <c r="I3" t="n">
-        <v>24.3947448534334</v>
+        <v>24.39474485343336</v>
       </c>
       <c r="J3" t="n">
-        <v>66.94104444430687</v>
+        <v>66.94104444430675</v>
       </c>
       <c r="K3" t="n">
-        <v>114.4129071680073</v>
+        <v>114.4129071680071</v>
       </c>
       <c r="L3" t="n">
-        <v>153.8422731170982</v>
+        <v>153.8422731170979</v>
       </c>
       <c r="M3" t="n">
-        <v>179.5266764564137</v>
+        <v>179.5266764564134</v>
       </c>
       <c r="N3" t="n">
-        <v>184.2782133839168</v>
+        <v>184.2782133839165</v>
       </c>
       <c r="O3" t="n">
-        <v>168.5785635750575</v>
+        <v>168.5785635750572</v>
       </c>
       <c r="P3" t="n">
-        <v>135.2991594176794</v>
+        <v>135.2991594176792</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.4439049954555</v>
+        <v>90.44390499545534</v>
       </c>
       <c r="R3" t="n">
-        <v>43.99133861722336</v>
+        <v>43.99133861722328</v>
       </c>
       <c r="S3" t="n">
-        <v>13.16073177761661</v>
+        <v>13.16073177761659</v>
       </c>
       <c r="T3" t="n">
-        <v>2.855894333796852</v>
+        <v>2.855894333796847</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04661416214031862</v>
+        <v>0.04661416214031854</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.594012164542202</v>
+        <v>0.5940121645422008</v>
       </c>
       <c r="H4" t="n">
-        <v>5.281308153838854</v>
+        <v>5.281308153838845</v>
       </c>
       <c r="I4" t="n">
-        <v>17.86356582096004</v>
+        <v>17.86356582096001</v>
       </c>
       <c r="J4" t="n">
-        <v>41.99666003313367</v>
+        <v>41.9966600331336</v>
       </c>
       <c r="K4" t="n">
-        <v>69.01341329863035</v>
+        <v>69.01341329863024</v>
       </c>
       <c r="L4" t="n">
-        <v>88.3134085356652</v>
+        <v>88.31340853566505</v>
       </c>
       <c r="M4" t="n">
-        <v>93.11410684728351</v>
+        <v>93.11410684728335</v>
       </c>
       <c r="N4" t="n">
-        <v>90.90006150671719</v>
+        <v>90.90006150671704</v>
       </c>
       <c r="O4" t="n">
-        <v>83.9609194027469</v>
+        <v>83.96091940274675</v>
       </c>
       <c r="P4" t="n">
-        <v>71.84307124608593</v>
+        <v>71.8430712460858</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.7404186145293</v>
+        <v>49.74041861452921</v>
       </c>
       <c r="R4" t="n">
-        <v>26.70894696205209</v>
+        <v>26.70894696205205</v>
       </c>
       <c r="S4" t="n">
-        <v>10.35201199479455</v>
+        <v>10.35201199479453</v>
       </c>
       <c r="T4" t="n">
-        <v>2.538051975771226</v>
+        <v>2.538051975771221</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03240066352048378</v>
+        <v>0.03240066352048372</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -32081,7 +32081,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
         <v>593.9283018233475</v>
@@ -32318,7 +32318,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
         <v>593.9283018233475</v>
@@ -32555,7 +32555,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
         <v>593.9283018233475</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -32807,7 +32807,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33041,10 +33041,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33500,7 +33500,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33737,7 +33737,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33752,7 +33752,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
@@ -33974,7 +33974,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34129,40 +34129,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T41" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34281,43 +34281,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34463,7 +34463,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>100.4446233715323</v>
+        <v>100.4446233715321</v>
       </c>
       <c r="K2" t="n">
-        <v>272.5049015864306</v>
+        <v>272.5049015864303</v>
       </c>
       <c r="L2" t="n">
-        <v>390.8711012347567</v>
+        <v>390.8711012347563</v>
       </c>
       <c r="M2" t="n">
-        <v>451.693701278531</v>
+        <v>451.6937012785306</v>
       </c>
       <c r="N2" t="n">
-        <v>444.2227820956222</v>
+        <v>444.2227820956218</v>
       </c>
       <c r="O2" t="n">
-        <v>373.822897841026</v>
+        <v>373.8228978410256</v>
       </c>
       <c r="P2" t="n">
-        <v>280.9942623790759</v>
+        <v>280.9942623790756</v>
       </c>
       <c r="Q2" t="n">
-        <v>133.013211216012</v>
+        <v>133.0132112160117</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>66.1944531180489</v>
       </c>
       <c r="K3" t="n">
-        <v>241.0367052062269</v>
+        <v>241.0367052062267</v>
       </c>
       <c r="L3" t="n">
-        <v>386.1282386406832</v>
+        <v>386.1282386406829</v>
       </c>
       <c r="M3" t="n">
-        <v>503.0977062843953</v>
+        <v>503.0977062843949</v>
       </c>
       <c r="N3" t="n">
-        <v>532.2788756441371</v>
+        <v>532.2788756441367</v>
       </c>
       <c r="O3" t="n">
-        <v>419.8446384073426</v>
+        <v>419.8446384073423</v>
       </c>
       <c r="P3" t="n">
-        <v>319.7875206432864</v>
+        <v>298.9868637021513</v>
       </c>
       <c r="Q3" t="n">
-        <v>45.39379617691532</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>46.7439214727475</v>
+        <v>46.74392147274739</v>
       </c>
       <c r="L4" t="n">
-        <v>115.9034337959813</v>
+        <v>115.9034337959812</v>
       </c>
       <c r="M4" t="n">
-        <v>132.6979838091241</v>
+        <v>132.6979838091239</v>
       </c>
       <c r="N4" t="n">
-        <v>135.0322338859458</v>
+        <v>135.0322338859456</v>
       </c>
       <c r="O4" t="n">
-        <v>108.5460473167866</v>
+        <v>108.5460473167864</v>
       </c>
       <c r="P4" t="n">
-        <v>69.12163051097941</v>
+        <v>69.12163051097929</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,10 +35024,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,7 +35258,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,25 +35410,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>545.8037669916472</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>421.7144789419836</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>674.9245771183485</v>
       </c>
       <c r="M14" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
         <v>451.7942679013292</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>883.6236994779107</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,7 +35966,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M18" t="n">
         <v>451.7942679013292</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>568.6923583622648</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
         <v>451.7942679013292</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36367,10 +36367,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>953.8052022928471</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36455,7 +36455,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,19 +36595,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359029</v>
+        <v>727.3874636142355</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -36689,10 +36689,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,22 +36832,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>440.9775330409149</v>
       </c>
       <c r="L29" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -37072,7 +37072,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37081,13 +37081,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>479.1168728852472</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37148,7 +37148,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37306,10 +37306,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>703.2275193635852</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
@@ -37318,10 +37318,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>716.4826681720835</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
         <v>250.7943048037195</v>
@@ -37385,7 +37385,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37400,7 +37400,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>77.43417800103857</v>
+        <v>77.43417800103849</v>
       </c>
       <c r="K37" t="n">
         <v>237.9034209322919</v>
@@ -37470,19 +37470,19 @@
         <v>351.6131335581704</v>
       </c>
       <c r="M37" t="n">
-        <v>379.4891407814562</v>
+        <v>379.4891407814561</v>
       </c>
       <c r="N37" t="n">
-        <v>376.7127075555124</v>
+        <v>376.7127075555123</v>
       </c>
       <c r="O37" t="n">
         <v>334.2088916106121</v>
       </c>
       <c r="P37" t="n">
-        <v>266.8128325330828</v>
+        <v>266.8128325330827</v>
       </c>
       <c r="Q37" t="n">
-        <v>110.249999925866</v>
+        <v>110.2499999258659</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>675.9826703737854</v>
+        <v>675.9826703737872</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636242</v>
@@ -37622,7 +37622,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>673.4432631313745</v>
       </c>
       <c r="P41" t="n">
-        <v>564.1522484625264</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
@@ -37947,10 +37947,10 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P43" t="n">
         <v>281.932207763703</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>614.4119707098149</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>643.4784210206391</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38038,7 +38038,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
